--- a/TC02_LoginSchool/02_Database_LoginSchool.xlsx
+++ b/TC02_LoginSchool/02_Database_LoginSchool.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\TC02_LoginSchool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1675A5FE-4A13-4788-929A-9800A83061B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC02-EC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TC02-TC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TC02-EC" sheetId="1" r:id="rId1"/>
+    <sheet name="TC02-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
   <si>
     <t>${TCID}</t>
   </si>
@@ -218,124 +238,123 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="14">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="TH Sarabun ps"/>
       <charset val="222"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color rgb="FF00B050"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color rgb="FF00B050"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09997863704336681"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,185 +522,185 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="เปอร์เซ็นต์" xfId="1" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -694,7 +713,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -702,20 +721,20 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1035,29 +1054,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col width="11" customWidth="1" style="58" min="1" max="1"/>
-    <col width="29.08203125" customWidth="1" style="58" min="2" max="2"/>
-    <col width="25.25" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21" customWidth="1" style="58" min="4" max="4"/>
-    <col width="21.08203125" customWidth="1" style="58" min="5" max="5"/>
-    <col width="22.58203125" customWidth="1" style="58" min="6" max="7"/>
-    <col width="12.08203125" customWidth="1" style="58" min="8" max="8"/>
-    <col width="13" customWidth="1" style="58" min="9" max="9"/>
-    <col width="12.83203125" customWidth="1" style="58" min="10" max="10"/>
-    <col width="21.6640625" customWidth="1" style="58" min="11" max="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="29.08203125" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="21.08203125" customWidth="1"/>
+    <col min="6" max="7" width="22.58203125" customWidth="1"/>
+    <col min="8" max="8" width="12.08203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1096,7 +1111,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1130,8 +1145,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="84" customHeight="1" s="58">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:11" ht="84" customHeight="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1165,11 +1180,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="56" customHeight="1" s="58">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:11" ht="56" customHeight="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="n"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1199,7 +1214,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1233,8 +1248,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="70" customHeight="1" s="58">
-      <c r="A6" s="7" t="n">
+    <row r="6" spans="1:11" ht="70" customHeight="1">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1268,14 +1283,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="42" customHeight="1" s="58">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:11" ht="42" customHeight="1">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="n"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
@@ -1305,6 +1320,7 @@
       <c r="D12" s="57" t="s">
         <v>36</v>
       </c>
+      <c r="E12" s="58"/>
       <c r="F12" s="18" t="s">
         <v>37</v>
       </c>
@@ -1313,26 +1329,26 @@
       <c r="D13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="20">
         <f>COUNTIF(H2:H7, "Pass")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F13" s="25">
         <f>E13*100/E15</f>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="D14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="20">
         <f>COUNTIF(H2:H7, "FAIL")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F14" s="22">
         <f>E14*100/E15</f>
-        <v/>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1341,61 +1357,62 @@
       </c>
       <c r="E15" s="23">
         <f>SUM(E13:E14)</f>
-        <v/>
-      </c>
-      <c r="F15" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="E16" s="24" t="n"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="E17" s="24" t="n"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="4:6">
       <c r="D18" s="57" t="s">
         <v>41</v>
       </c>
+      <c r="E18" s="58"/>
       <c r="F18" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="4:6">
       <c r="D19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="20">
         <f>COUNTIF(H2:H7, "PASS")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F19" s="25">
         <f>E19*100/E21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
       <c r="D20" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="23">
         <f>COUNTIF(H2:H7,"FAIL")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F20" s="22">
         <f>E20*100/E21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
       <c r="D21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="26">
         <f>SUM(E19+E20)</f>
-        <v/>
-      </c>
-      <c r="F21" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="21">
         <v>100</v>
       </c>
     </row>
@@ -1405,43 +1422,39 @@
     <mergeCell ref="D18:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H7">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col width="27.4140625" customWidth="1" style="58" min="2" max="2"/>
-    <col width="27.75" customWidth="1" style="58" min="3" max="3"/>
-    <col width="37.25" customWidth="1" style="58" min="4" max="4"/>
-    <col width="28.25" customWidth="1" style="58" min="5" max="5"/>
-    <col width="20.9140625" customWidth="1" style="58" min="6" max="6"/>
+    <col min="2" max="2" width="27.4140625" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
+    <col min="6" max="6" width="20.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1464,8 +1477,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" s="58">
-      <c r="A2" s="30" t="n">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -1477,25 +1490,26 @@
       <c r="D2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="34" t="n"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28" customHeight="1" s="58">
-      <c r="A3" s="35" t="n"/>
-      <c r="B3" s="36" t="n"/>
+    <row r="3" spans="1:6" ht="28" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="39" t="n"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="40" t="n"/>
-      <c r="B4" s="41" t="n"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="41" t="s">
         <v>53</v>
       </c>
@@ -1505,10 +1519,11 @@
       <c r="E4" s="43" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="40" t="n"/>
-      <c r="B5" s="41" t="n"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="41" t="s">
         <v>55</v>
       </c>
@@ -1518,30 +1533,33 @@
       <c r="E5" s="44" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="40" t="n"/>
-      <c r="B6" s="41" t="n"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" t="s">
         <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="45" t="n"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="46" t="n"/>
-      <c r="B7" s="47" t="n"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="50" t="n"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" s="58">
+      <c r="E7" s="50"/>
+      <c r="F7" s="58"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>61</v>
       </c>
@@ -1554,25 +1572,26 @@
       <c r="D8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="34" t="n"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28" customHeight="1" s="58">
-      <c r="A9" s="35" t="n"/>
-      <c r="B9" s="36" t="n"/>
+    <row r="9" spans="1:6" ht="28" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="39" t="n"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="40" t="n"/>
-      <c r="B10" s="41" t="n"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
         <v>53</v>
       </c>
@@ -1582,10 +1601,11 @@
       <c r="E10" s="51" t="s">
         <v>19</v>
       </c>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="n"/>
-      <c r="B11" s="41" t="n"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="41" t="s">
         <v>55</v>
       </c>
@@ -1595,30 +1615,33 @@
       <c r="E11" s="44" t="s">
         <v>12</v>
       </c>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="40" t="n"/>
-      <c r="B12" s="41" t="n"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
       <c r="C12" t="s">
         <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="45" t="n"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="46" t="n"/>
-      <c r="B13" s="47" t="n"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="50" t="n"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" s="58">
+      <c r="E13" s="50"/>
+      <c r="F13" s="58"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>63</v>
       </c>
@@ -1631,36 +1654,38 @@
       <c r="D14" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="34" t="n"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28" customHeight="1" s="58">
-      <c r="A15" s="35" t="n"/>
-      <c r="B15" s="36" t="n"/>
+    <row r="15" spans="1:6" ht="28" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="39" t="n"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="40" t="n"/>
-      <c r="B16" s="41" t="n"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="52" t="n"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="40" t="n"/>
-      <c r="B17" s="41" t="n"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="41" t="s">
         <v>55</v>
       </c>
@@ -1670,30 +1695,33 @@
       <c r="E17" s="44" t="s">
         <v>12</v>
       </c>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="40" t="n"/>
-      <c r="B18" s="41" t="n"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="45" t="n"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="46" t="n"/>
-      <c r="B19" s="47" t="n"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="50" t="n"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" s="58">
+      <c r="E19" s="50"/>
+      <c r="F19" s="58"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>64</v>
       </c>
@@ -1706,25 +1734,26 @@
       <c r="D20" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="34" t="n"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28" customHeight="1" s="58">
-      <c r="A21" s="35" t="n"/>
-      <c r="B21" s="36" t="n"/>
+    <row r="21" spans="1:6" ht="28" customHeight="1">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="39" t="n"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="40" t="n"/>
-      <c r="B22" s="41" t="n"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="41" t="s">
         <v>53</v>
       </c>
@@ -1734,10 +1763,11 @@
       <c r="E22" s="53" t="s">
         <v>11</v>
       </c>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="40" t="n"/>
-      <c r="B23" s="41" t="n"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
         <v>55</v>
       </c>
@@ -1747,30 +1777,33 @@
       <c r="E23" s="54" t="s">
         <v>12</v>
       </c>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="40" t="n"/>
-      <c r="B24" s="41" t="n"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" t="s">
         <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="45" t="n"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="46" t="n"/>
-      <c r="B25" s="47" t="n"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="50" t="n"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" s="58">
+      <c r="E25" s="50"/>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="30" t="s">
         <v>65</v>
       </c>
@@ -1783,25 +1816,26 @@
       <c r="D26" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="34" t="n"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28" customHeight="1" s="58">
-      <c r="A27" s="35" t="n"/>
-      <c r="B27" s="36" t="n"/>
+    <row r="27" spans="1:6" ht="28" customHeight="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="39" t="n"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="40" t="n"/>
-      <c r="B28" s="41" t="n"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="41" t="s">
         <v>53</v>
       </c>
@@ -1811,10 +1845,11 @@
       <c r="E28" s="53" t="s">
         <v>11</v>
       </c>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="40" t="n"/>
-      <c r="B29" s="41" t="n"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="41" t="s">
         <v>55</v>
       </c>
@@ -1824,30 +1859,33 @@
       <c r="E29" s="55" t="s">
         <v>29</v>
       </c>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="40" t="n"/>
-      <c r="B30" s="41" t="n"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
       <c r="C30" t="s">
         <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="45" t="n"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="46" t="n"/>
-      <c r="B31" s="47" t="n"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="50" t="n"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1" s="58">
+      <c r="E31" s="50"/>
+      <c r="F31" s="58"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="30" t="s">
         <v>65</v>
       </c>
@@ -1860,25 +1898,26 @@
       <c r="D32" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="34" t="n"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="59" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28" customHeight="1" s="58">
-      <c r="A33" s="35" t="n"/>
-      <c r="B33" s="36" t="n"/>
+    <row r="33" spans="1:6" ht="28" customHeight="1">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="39" t="n"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="40" t="n"/>
-      <c r="B34" s="41" t="n"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="41" t="s">
         <v>53</v>
       </c>
@@ -1888,39 +1927,43 @@
       <c r="E34" s="53" t="s">
         <v>11</v>
       </c>
+      <c r="F34" s="58"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="40" t="n"/>
-      <c r="B35" s="41" t="n"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="56" t="n"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="58"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="40" t="n"/>
-      <c r="B36" s="41" t="n"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
       <c r="C36" t="s">
         <v>57</v>
       </c>
       <c r="D36" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="45" t="n"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="58"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="46" t="n"/>
-      <c r="B37" s="47" t="n"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="50" t="n"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1932,11 +1975,11 @@
     <mergeCell ref="F26:F31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E22" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E28" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E34" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E22" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E28" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E34" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
